--- a/biology/Zoologie/Coleodactylus_natalensis/Coleodactylus_natalensis.xlsx
+++ b/biology/Zoologie/Coleodactylus_natalensis/Coleodactylus_natalensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coleodactylus natalensis est une espèce de geckos de la famille des Sphaerodactylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coleodactylus natalensis est une espèce de geckos de la famille des Sphaerodactylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Rio Grande do Norte au Brésil[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Rio Grande do Norte au Brésil.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est insectivore et consomme la plupart des insectes de taille adaptée.
 </t>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Freire, 1999 : Espécie nova de Coleodactylus Parker, 1926 das Dunas de Natal, Rio Grande do Norte, Brasil, com notas sobre suas relaçoãs dicromatismo sexual no género (Squamata, Gekkonidae). Boletim Museu Nacional do Rio de Janeiro Nova Série, vol. 399, p. 1-14.</t>
         </is>
